--- a/Misc Files/4.xlsx
+++ b/Misc Files/4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b15c2d483f869a28/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\bangla-school-app\Misc Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8313EDE-D993-4C15-9C5A-2ABCDD6F3131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B9F12E8-71B2-431C-BE57-5B65B1AD17A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A8982715-F493-4325-A4AE-B791E0832A27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{96967039-0190-404C-89B9-CE424DCE79CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,123 +33,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>ড়</t>
+  </si>
+  <si>
+    <t>ঢ়</t>
+  </si>
+  <si>
+    <t>ৎ</t>
+  </si>
+  <si>
+    <t>ং</t>
+  </si>
+  <si>
+    <t>ঃ</t>
+  </si>
+  <si>
+    <t>‍ঁ</t>
+  </si>
+  <si>
+    <t>ক</t>
+  </si>
+  <si>
+    <t>খ</t>
+  </si>
+  <si>
+    <t>গ</t>
+  </si>
+  <si>
+    <t>ঘ</t>
+  </si>
+  <si>
+    <t>ঙ</t>
+  </si>
+  <si>
+    <t>চ</t>
+  </si>
+  <si>
+    <t>ছ</t>
+  </si>
+  <si>
+    <t>জ</t>
+  </si>
+  <si>
+    <t>ঝ</t>
+  </si>
+  <si>
+    <t>ঞ</t>
+  </si>
+  <si>
+    <t>ট</t>
+  </si>
+  <si>
+    <t>ঠ</t>
+  </si>
+  <si>
+    <t>ড</t>
+  </si>
+  <si>
+    <t>ঢ</t>
+  </si>
+  <si>
+    <t>ণ</t>
+  </si>
+  <si>
+    <t>ত</t>
+  </si>
+  <si>
+    <t>থ</t>
+  </si>
+  <si>
+    <t>দ</t>
+  </si>
+  <si>
+    <t>ধ</t>
+  </si>
+  <si>
+    <t>ন</t>
+  </si>
   <si>
     <t>প</t>
   </si>
   <si>
-    <t>ঘ</t>
-  </si>
-  <si>
-    <t>ঠ</t>
-  </si>
-  <si>
-    <t>ন</t>
-  </si>
-  <si>
     <t>ফ</t>
   </si>
   <si>
-    <t>ঙ</t>
-  </si>
-  <si>
-    <t>ড</t>
+    <t>ব</t>
+  </si>
+  <si>
+    <t>ভ</t>
+  </si>
+  <si>
+    <t>ম</t>
+  </si>
+  <si>
+    <t>য</t>
+  </si>
+  <si>
+    <t>র</t>
+  </si>
+  <si>
+    <t>ল</t>
+  </si>
+  <si>
+    <t>শ</t>
+  </si>
+  <si>
+    <t>ষ</t>
+  </si>
+  <si>
+    <t>স</t>
+  </si>
+  <si>
+    <t>হ</t>
   </si>
   <si>
     <t>অ</t>
   </si>
   <si>
-    <t>ব</t>
-  </si>
-  <si>
-    <t>চ</t>
-  </si>
-  <si>
-    <t>ঢ</t>
-  </si>
-  <si>
     <t>আ</t>
   </si>
   <si>
-    <t>ভ</t>
-  </si>
-  <si>
-    <t>ছ</t>
-  </si>
-  <si>
-    <t>ণ</t>
-  </si>
-  <si>
     <t>ই</t>
   </si>
   <si>
-    <t>ম</t>
-  </si>
-  <si>
-    <t>জ</t>
-  </si>
-  <si>
-    <t>ত</t>
-  </si>
-  <si>
     <t>ঈ</t>
   </si>
   <si>
-    <t>ক</t>
-  </si>
-  <si>
-    <t>ঝ</t>
-  </si>
-  <si>
-    <t>থ</t>
-  </si>
-  <si>
     <t>উ</t>
   </si>
   <si>
-    <t>খ</t>
-  </si>
-  <si>
-    <t>ঞ</t>
-  </si>
-  <si>
-    <t>দ</t>
-  </si>
-  <si>
     <t>ঊ</t>
   </si>
   <si>
-    <t>গ</t>
-  </si>
-  <si>
-    <t>ট</t>
-  </si>
-  <si>
-    <t>ধ</t>
-  </si>
-  <si>
     <t>ঋ</t>
-  </si>
-  <si>
-    <t>য</t>
-  </si>
-  <si>
-    <t>র</t>
-  </si>
-  <si>
-    <t>ল</t>
-  </si>
-  <si>
-    <t>শ</t>
-  </si>
-  <si>
-    <t>ষ</t>
-  </si>
-  <si>
-    <t>স</t>
-  </si>
-  <si>
-    <t>হ</t>
   </si>
   <si>
     <t>এ</t>
@@ -523,11 +541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E06F37A-DD55-4464-9348-166B08451C3F}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04A53D-0248-4CE0-8314-AADE74ABF446}">
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.2" x14ac:dyDescent="0.85"/>
@@ -535,33 +553,33 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1">
         <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1">
         <v>32</v>
@@ -572,34 +590,40 @@
       <c r="Q1" s="1">
         <v>40</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="1">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1">
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1">
         <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1">
         <v>33</v>
@@ -610,34 +634,40 @@
       <c r="Q2" s="1">
         <v>41</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="1">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1">
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1">
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1">
         <v>34</v>
@@ -649,33 +679,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1">
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1">
         <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1">
         <v>35</v>
@@ -687,79 +717,91 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1">
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1">
         <v>28</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1">
         <v>36</v>
       </c>
+      <c r="P5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1">
         <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1">
         <v>29</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N6" s="1">
         <v>37</v>
       </c>
+      <c r="P6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>14</v>
@@ -771,39 +813,45 @@
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1">
         <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N7" s="1">
         <v>38</v>
       </c>
+      <c r="P7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1">
         <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1">
         <v>31</v>
@@ -813,10 +861,15 @@
       </c>
       <c r="N8" s="1">
         <v>39</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>